--- a/go_pic.xlsx
+++ b/go_pic.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941B6CF-E7F8-4A84-9B2B-732D4818E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{568CB4AA-AF9A-BE4C-84B9-9BC76EEBE81B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="go_slice" sheetId="37" r:id="rId1"/>
-    <sheet name="tree" sheetId="34" r:id="rId2"/>
-    <sheet name="mysql" sheetId="33" r:id="rId3"/>
+    <sheet name="go_map" sheetId="38" r:id="rId2"/>
+    <sheet name="tree" sheetId="34" r:id="rId3"/>
+    <sheet name="mysql" sheetId="33" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
   <si>
     <t>功能</t>
     <rPh sb="0" eb="2">
@@ -228,12 +229,116 @@
     <t>[8]int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>hash0</t>
+  </si>
+  <si>
+    <t>buckets</t>
+  </si>
+  <si>
+    <t>oldbuckets</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>溢出桶结构，正常桶里面某个bmap存满了，会使用这里面的内存空间存放键值对</t>
+  </si>
+  <si>
+    <t>noverflow</t>
+  </si>
+  <si>
+    <t>溢出桶里bmap大致的数量</t>
+  </si>
+  <si>
+    <t>nevacuate</t>
+  </si>
+  <si>
+    <t>分流次数，成倍扩容分流操作计数的字段(Map扩容相关字段)</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>状态标识，比如正在被写、buckets和oldbuckets在被遍历、等量扩容(Map扩容相关字段)</t>
+  </si>
+  <si>
+    <t>表示当前哈希表中的元素数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是哈希在扩容时用于保存之前 buckets 的字段，它的大小是当前 buckets 的一半；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topbits</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>elems</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>对齐内存使用的，不是每个bmap都有会这个字段，需要满足一定条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度为8的数组，[]uint8，元素为：key获取的hash的高8位，遍历时对比使用，提高性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度为8的数组，[]keytype，元素为：具体的key值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度为8的数组，[]elemtype，元素为：键值对的key对应的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 表示当前哈希表持有的 buckets 数量，但是因为哈希表中桶的数量都 2 的倍数，
+所以该字段会存储对数，也就是 len(buckets) == 2^B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是哈希的种子，它能为哈希函数的结果引入随机性，
+这个值在创建哈希表时确定，并在调用哈希函数时作为参数传入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向一个数组(连续内存空间)，数组的类型为[]bmap，bmap类型
+就是存在键值对的结构下面会详细介绍，这个字段我们可以称之为正常桶。如下图所示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向的hmap.extra.overflow溢出桶里的bmap，
+上面的字段topbits、keys、elems长度为8，最多存8组键值对，存满了就往指向的这个bmap里存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +430,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212529"/>
+      <name val="宋体-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212529"/>
+      <name val="等线 Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体-简 常规体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -393,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +556,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,6 +1060,309 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>105814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>469899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B8F92C-EB2C-D140-921E-08725AC54703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11328400" y="486814"/>
+          <a:ext cx="8115300" cy="4212185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>532612</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>233118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91C7D28-CC7D-0F4B-9C58-078A8336C576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11340312" y="5071818"/>
+          <a:ext cx="7620788" cy="3691181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5612</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CF5D2C-C20B-6543-8A98-4F6F2D211197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19735800" y="469900"/>
+          <a:ext cx="5936512" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182121</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F970F393-CC3A-5C4E-BB58-9C50C71212AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19342100" y="6096000"/>
+          <a:ext cx="5681221" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>386308</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="http://cdn.tigerb.cn/20201217165310.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360D716F-08F2-094F-8FC9-7E9C196AA96E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26053008" y="241300"/>
+          <a:ext cx="7767091" cy="7962900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>164163</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="http://cdn.tigerb.cn/20201217165551.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D01D38-046F-4842-9720-278850CD33B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25666700" y="8496300"/>
+          <a:ext cx="7593663" cy="7785100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -41373,13 +41811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F61FAAC-E910-3B4F-8224-1BB7E0426FBF}">
   <dimension ref="F2:AC27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="9"/>
+    <col min="1" max="16384" width="4.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:12" ht="24" customHeight="1">
@@ -41641,6 +42079,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D4482-4E01-A042-A0DB-0E49B68DBEDB}">
+  <dimension ref="B4:C23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" ht="48" customHeight="1">
+      <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="48" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="48" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="48" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="48" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="48" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="48" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="48" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="48" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="48" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="2:3" ht="24">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="2:3" ht="24">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="2:3" ht="24">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="2:3" ht="48" customHeight="1">
+      <c r="B18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="48" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="48" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="48" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="48" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="48" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644E5244-ABF6-4DFC-B5A9-35FCAD5CDE5A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -41648,7 +42251,7 @@
       <selection activeCell="AE92" sqref="AE92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41657,27 +42260,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D4699-DA57-4848-B38D-78D1A276D1DB}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="29.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="25.05" customHeight="1">
+    <row r="2" spans="2:17" ht="25" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -41694,7 +42297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="25.05" customHeight="1">
+    <row r="3" spans="2:17" ht="25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -41711,7 +42314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="25.05" customHeight="1">
+    <row r="4" spans="2:17" ht="25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -41728,7 +42331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="25.05" customHeight="1">
+    <row r="5" spans="2:17" ht="25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -41745,7 +42348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="25.05" customHeight="1">
+    <row r="6" spans="2:17" ht="25" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -41762,7 +42365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="25.05" customHeight="1">
+    <row r="7" spans="2:17" ht="25" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -41779,7 +42382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="25.05" customHeight="1">
+    <row r="8" spans="2:17" ht="25" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -41796,7 +42399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="25.05" customHeight="1">
+    <row r="9" spans="2:17" ht="25" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -41813,12 +42416,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="17.399999999999999">
+    <row r="14" spans="2:17" ht="18">
       <c r="L14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="17.399999999999999">
+    <row r="15" spans="2:17" ht="18">
       <c r="L15" s="8" t="s">
         <v>19</v>
       </c>
@@ -41838,7 +42441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="17.399999999999999">
+    <row r="16" spans="2:17" ht="18">
       <c r="L16" s="6" t="s">
         <v>25</v>
       </c>
@@ -41858,7 +42461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="12:17" ht="17.399999999999999">
+    <row r="17" spans="12:17" ht="18">
       <c r="L17" s="6" t="s">
         <v>29</v>
       </c>
@@ -41878,7 +42481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="12:17" ht="17.399999999999999">
+    <row r="18" spans="12:17" ht="18">
       <c r="L18" s="6" t="s">
         <v>32</v>
       </c>
@@ -41898,7 +42501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="12:17" ht="17.399999999999999">
+    <row r="19" spans="12:17" ht="18">
       <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
@@ -41918,7 +42521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="12:17" ht="17.399999999999999">
+    <row r="20" spans="12:17" ht="18">
       <c r="L20" s="6" t="s">
         <v>35</v>
       </c>
@@ -41938,12 +42541,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="12:17" ht="17.399999999999999">
+    <row r="22" spans="12:17" ht="18">
       <c r="L22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="12:17" ht="17.399999999999999">
+    <row r="23" spans="12:17" ht="18">
       <c r="L23" s="8" t="s">
         <v>19</v>
       </c>
@@ -41963,7 +42566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="12:17" ht="17.399999999999999">
+    <row r="24" spans="12:17" ht="18">
       <c r="L24" s="6" t="s">
         <v>25</v>
       </c>
@@ -41983,7 +42586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="12:17" ht="17.399999999999999">
+    <row r="25" spans="12:17" ht="18">
       <c r="L25" s="6" t="s">
         <v>29</v>
       </c>
@@ -42003,7 +42606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="12:17" ht="17.399999999999999">
+    <row r="26" spans="12:17" ht="18">
       <c r="L26" s="6" t="s">
         <v>32</v>
       </c>
@@ -42023,7 +42626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="12:17" ht="17.399999999999999">
+    <row r="27" spans="12:17" ht="18">
       <c r="L27" s="6" t="s">
         <v>33</v>
       </c>
@@ -42043,7 +42646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="12:17" ht="17.399999999999999">
+    <row r="28" spans="12:17" ht="18">
       <c r="L28" s="6" t="s">
         <v>35</v>
       </c>
@@ -42063,12 +42666,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="12:17" ht="17.399999999999999">
+    <row r="30" spans="12:17" ht="18">
       <c r="L30" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="12:17" ht="17.399999999999999">
+    <row r="31" spans="12:17" ht="18">
       <c r="L31" s="8" t="s">
         <v>19</v>
       </c>
@@ -42088,7 +42691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="12:17" ht="17.399999999999999">
+    <row r="32" spans="12:17" ht="18">
       <c r="L32" s="6" t="s">
         <v>25</v>
       </c>
@@ -42108,7 +42711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="12:17" ht="17.399999999999999">
+    <row r="33" spans="12:17" ht="18">
       <c r="L33" s="6" t="s">
         <v>29</v>
       </c>
@@ -42128,7 +42731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="12:17" ht="17.399999999999999">
+    <row r="34" spans="12:17" ht="18">
       <c r="L34" s="6" t="s">
         <v>32</v>
       </c>
@@ -42148,7 +42751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="12:17" ht="17.399999999999999">
+    <row r="35" spans="12:17" ht="18">
       <c r="L35" s="6" t="s">
         <v>25</v>
       </c>
@@ -42168,7 +42771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="12:17" ht="17.399999999999999">
+    <row r="36" spans="12:17" ht="18">
       <c r="L36" s="6" t="s">
         <v>29</v>
       </c>
@@ -42188,7 +42791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="12:17" ht="17.399999999999999">
+    <row r="37" spans="12:17" ht="18">
       <c r="L37" s="6" t="s">
         <v>32</v>
       </c>
@@ -42208,12 +42811,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="12:17" ht="17.399999999999999">
+    <row r="39" spans="12:17" ht="18">
       <c r="L39" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="12:17" ht="17.399999999999999">
+    <row r="40" spans="12:17" ht="18">
       <c r="L40" s="8" t="s">
         <v>19</v>
       </c>
@@ -42233,7 +42836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="12:17" ht="17.399999999999999">
+    <row r="41" spans="12:17" ht="18">
       <c r="L41" s="6" t="s">
         <v>25</v>
       </c>
@@ -42253,7 +42856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="12:17" ht="17.399999999999999">
+    <row r="42" spans="12:17" ht="18">
       <c r="L42" s="6" t="s">
         <v>29</v>
       </c>
@@ -42273,7 +42876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="12:17" ht="17.399999999999999">
+    <row r="43" spans="12:17" ht="18">
       <c r="L43" s="6" t="s">
         <v>32</v>
       </c>
@@ -42293,7 +42896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="12:17" ht="17.399999999999999">
+    <row r="44" spans="12:17" ht="18">
       <c r="L44" s="6" t="s">
         <v>25</v>
       </c>
@@ -42313,7 +42916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="12:17" ht="17.399999999999999">
+    <row r="45" spans="12:17" ht="18">
       <c r="L45" s="6" t="s">
         <v>29</v>
       </c>
@@ -42333,7 +42936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="12:17" ht="17.399999999999999">
+    <row r="46" spans="12:17" ht="18">
       <c r="L46" s="6" t="s">
         <v>32</v>
       </c>
@@ -42361,17 +42964,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42379,17 +42982,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42400,7 +43003,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -42409,7 +43012,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -42427,7 +43030,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -42436,7 +43039,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/go_pic.xlsx
+++ b/go_pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{568CB4AA-AF9A-BE4C-84B9-9BC76EEBE81B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19F625A7-F859-6C45-9516-21C022152A87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
   <si>
     <t>功能</t>
     <rPh sb="0" eb="2">
@@ -333,12 +333,100 @@
 上面的字段topbits、keys、elems长度为8，最多存8组键值对，存满了就往指向的这个bmap里存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>hmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ]bmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">…… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">… … </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tophash[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tophash[1]</t>
+  </si>
+  <si>
+    <t>tophash[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tophash[3]</t>
+  </si>
+  <si>
+    <t>tophash[5]</t>
+  </si>
+  <si>
+    <t>tophash[7]</t>
+  </si>
+  <si>
+    <t>tophash[4]</t>
+  </si>
+  <si>
+    <t>tophash[6]</t>
+  </si>
+  <si>
+    <t>Key[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapextra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldoverflow</t>
+  </si>
+  <si>
+    <t>nextOverflow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +536,30 @@
       <name val="宋体-简 常规体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线 Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +584,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -493,6 +627,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -516,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +711,36 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1069,8 +1242,8 @@
       <xdr:rowOff>105814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>469899</xdr:rowOff>
     </xdr:to>
@@ -1113,8 +1286,8 @@
       <xdr:rowOff>233118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>266699</xdr:rowOff>
     </xdr:to>
@@ -1308,8 +1481,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>164163</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,6 +1530,615 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE6A8F4-5663-C944-BD18-ADA47B9CF791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14147800" y="14478000"/>
+          <a:ext cx="711200" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>Key</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="肘形连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCEEEE1-60C7-C64F-8F69-6164E39AF9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19443700" y="13144500"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74E5D71-F848-3A48-95A0-496C3EDE4956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20650200" y="13335000"/>
+          <a:ext cx="419100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="肘形连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3E0C90-52A3-724A-95E9-03FB809B21DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="20389850" y="13582650"/>
+          <a:ext cx="952500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直线连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147E2DC3-B0CA-5349-97DA-1B38CB82E708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20650200" y="14452600"/>
+          <a:ext cx="419100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="肘形连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A33EC8-1554-134A-8D64-749DD95E3794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="20389850" y="14700250"/>
+          <a:ext cx="952500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直线箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87995CA4-BD9F-484D-80E7-5665FD837CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="14662150"/>
+          <a:ext cx="673100" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直线箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678677D2-E0A8-754F-BE98-6CC176F429C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16662400" y="14097000"/>
+          <a:ext cx="1625600" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="肘形连接符 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4457102A-6629-434F-866C-5AEA4CDF0E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16052800" y="15468600"/>
+          <a:ext cx="1409700" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="肘形连接符 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E78570D-2CAE-FF42-9D5A-26C08A61D243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18605500" y="15938500"/>
+          <a:ext cx="1320800" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="肘形连接符 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E169CBC-27F6-F645-A17C-976751D29583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="20891500" y="16598900"/>
+          <a:ext cx="1701800" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -746"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -42080,16 +42862,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D4482-4E01-A042-A0DB-0E49B68DBEDB}">
-  <dimension ref="B4:C23"/>
+  <dimension ref="B4:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" ht="48" customHeight="1">
@@ -42184,11 +42971,11 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="2:3" ht="24">
+    <row r="17" spans="2:16" ht="24">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="2:3" ht="48" customHeight="1">
+    <row r="18" spans="2:16" ht="48" customHeight="1">
       <c r="B18" s="16" t="s">
         <v>51</v>
       </c>
@@ -42196,7 +42983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="48" customHeight="1">
+    <row r="19" spans="2:16" ht="48" customHeight="1">
       <c r="B19" s="14" t="s">
         <v>68</v>
       </c>
@@ -42204,7 +42991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="48" customHeight="1">
+    <row r="20" spans="2:16" ht="48" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>69</v>
       </c>
@@ -42212,7 +42999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="48" customHeight="1">
+    <row r="21" spans="2:16" ht="48" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>70</v>
       </c>
@@ -42220,7 +43007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="48" customHeight="1">
+    <row r="22" spans="2:16" ht="48" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>71</v>
       </c>
@@ -42228,7 +43015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="48" customHeight="1">
+    <row r="23" spans="2:16" ht="48" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>72</v>
       </c>
@@ -42236,7 +43023,201 @@
         <v>73</v>
       </c>
     </row>
+    <row r="31" spans="2:16" ht="21">
+      <c r="I31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" ht="21">
+      <c r="I32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16" ht="21">
+      <c r="I33" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" ht="21">
+      <c r="I34" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" ht="21">
+      <c r="I35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" ht="21">
+      <c r="I36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="9:16" ht="21">
+      <c r="I37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="9:16" ht="21">
+      <c r="I38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="9:16" ht="21">
+      <c r="I39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="9:16" ht="21">
+      <c r="I40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="9:16" ht="21">
+      <c r="K41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="9:16" ht="21">
+      <c r="K42" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="9:16" ht="21">
+      <c r="K43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="9:16" ht="21">
+      <c r="K44" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="46" spans="9:16" ht="21">
+      <c r="M46" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="9:16" ht="21">
+      <c r="M47" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="9:16" ht="21">
+      <c r="M48" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" ht="21">
+      <c r="M49" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" ht="21">
+      <c r="M50" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13" ht="21">
+      <c r="M51" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42964,6 +43945,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -42971,38 +43969,48 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="3"/>
   <pixelatorList sheetStid="7"/>
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -43011,35 +44019,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -43048,7 +44029,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/go_pic.xlsx
+++ b/go_pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19F625A7-F859-6C45-9516-21C022152A87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87DE3AAD-B86A-444D-A32C-3C7E2A57A42A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42864,8 +42864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D4482-4E01-A042-A0DB-0E49B68DBEDB}">
   <dimension ref="B4:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E21" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/go_pic.xlsx
+++ b/go_pic.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87DE3AAD-B86A-444D-A32C-3C7E2A57A42A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE57FE61-530B-A146-BEAB-E67A9CFE3A96}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="go_slice" sheetId="37" r:id="rId1"/>
     <sheet name="go_map" sheetId="38" r:id="rId2"/>
     <sheet name="tree" sheetId="34" r:id="rId3"/>
     <sheet name="mysql" sheetId="33" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -426,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +559,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -659,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,9 +724,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,17 +733,23 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -42306,6 +42316,3198 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>194732</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>279399</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://topgoer.com/static/7.1/gmp/12.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412DA751-6250-8741-BEE4-B0135F9CBE80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14063132" y="88900"/>
+          <a:ext cx="8009467" cy="6007100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>243094</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://topgoer.com/static/7.1/gmp/31.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E6D64A-2864-2342-B355-1587CB9B1C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13781294" y="6502400"/>
+          <a:ext cx="9637506" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="组合 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B67348-3979-DD4A-B3DD-F9D8C0170049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3756025" y="2971800"/>
+          <a:ext cx="819150" cy="5578475"/>
+          <a:chOff x="3721100" y="2971800"/>
+          <a:chExt cx="812800" cy="5499100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="圆角矩形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DD9447-D64F-7C4E-9FB1-401AE3055506}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3816350" y="7861300"/>
+            <a:ext cx="622300" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="组合 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5527E320-BFBB-7B48-83C4-AF5E77DDF2E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3721100" y="2971800"/>
+            <a:ext cx="812800" cy="4889500"/>
+            <a:chOff x="3721100" y="2971800"/>
+            <a:chExt cx="812800" cy="4889500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="圆角矩形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8D75FF-093A-8F48-AFD1-DEE4E7C3767C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3721100" y="2971800"/>
+              <a:ext cx="812800" cy="3060700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="圆角矩形 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A70A2AE-B761-C248-A606-5AAA5AD58F97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="6527800"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>P</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="圆角矩形 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6EC03B-BBC8-5E43-B634-C6D7C839336A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="5283200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="圆角矩形 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B497B2-5E22-E14A-9D4B-090793A8894D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="4521200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="圆角矩形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3C4F62-3910-F147-BFAA-D2E470F54875}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="3759200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="14" name="直线箭头连接符 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AE6066-FEBC-2B46-9AB9-4076A95A80B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="4" idx="2"/>
+              <a:endCxn id="7" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4127500" y="6032500"/>
+              <a:ext cx="0" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直线箭头连接符 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5C9C4F-6A53-B646-8B6C-0684DE8E9927}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="6" idx="0"/>
+              <a:endCxn id="7" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4127500" y="7137400"/>
+              <a:ext cx="0" cy="723900"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACE967F-E3AB-204E-BA4D-14D9F751BB56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="7823200"/>
+          <a:ext cx="9791700" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE6FF8A-5FBA-CA48-991F-D63C68410839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235450" y="9055100"/>
+          <a:ext cx="622300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8690C388-5862-AC45-B5EC-99F716E9AEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5721350" y="9055100"/>
+          <a:ext cx="622300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="组合 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7500F1-87A8-2C44-B385-1612D9AB92A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5254625" y="2971800"/>
+          <a:ext cx="822325" cy="5578475"/>
+          <a:chOff x="3721100" y="2971800"/>
+          <a:chExt cx="812800" cy="5499100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="圆角矩形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BB5D91-0C9C-B74E-9A58-F283303CC17A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3816350" y="7861300"/>
+            <a:ext cx="622300" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="组合 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3ED04C-0608-DE4C-94F4-2983D3F2426D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3721100" y="2971800"/>
+            <a:ext cx="812800" cy="4889500"/>
+            <a:chOff x="3721100" y="2971800"/>
+            <a:chExt cx="812800" cy="4889500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="圆角矩形 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124FF532-9D36-E044-A4D4-5525F0E55589}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3721100" y="2971800"/>
+              <a:ext cx="812800" cy="3060700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="圆角矩形 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C90B01-9638-AD42-B682-AD165B7596F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="6527800"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>P</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="圆角矩形 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10DC140-6519-E743-8807-944005D70E23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="5283200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="圆角矩形 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DE5DF5-F0C3-F043-BC6F-D941036D6FF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="4521200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="直线箭头连接符 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BA4A92-3850-4042-9D81-0A4A56011B61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="26" idx="2"/>
+              <a:endCxn id="27" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4127500" y="6032500"/>
+              <a:ext cx="0" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="直线箭头连接符 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEB53CD-6840-EA45-811B-38894002AF33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="24" idx="0"/>
+              <a:endCxn id="27" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4127500" y="7137400"/>
+              <a:ext cx="0" cy="723900"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="组合 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657A3666-E680-444A-8EAE-6AA8AE8B9644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6756400" y="2971800"/>
+          <a:ext cx="819150" cy="5578475"/>
+          <a:chOff x="3721100" y="2971800"/>
+          <a:chExt cx="812800" cy="5499100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="圆角矩形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F66C53-2FBB-F14B-B542-8ECA3EF5FE32}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3816350" y="7861300"/>
+            <a:ext cx="622300" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="组合 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57015435-9E85-E84A-AB53-AA669FBCFB45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3721100" y="2971800"/>
+            <a:ext cx="812800" cy="4889500"/>
+            <a:chOff x="3721100" y="2971800"/>
+            <a:chExt cx="812800" cy="4889500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="圆角矩形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58266A7A-05BF-1846-B0AC-ACBD9C9BB644}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3721100" y="2971800"/>
+              <a:ext cx="812800" cy="3060700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="圆角矩形 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A74F74C-20D7-CA4D-8853-906076E3FD7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="6527800"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>P</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="圆角矩形 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CA567C-019D-824E-9742-8A680CBFA711}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="5283200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="圆角矩形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76224EE-1CFC-E44F-A636-282D72B9737A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3816350" y="4521200"/>
+              <a:ext cx="622300" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="直线箭头连接符 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F41D63-40EA-314D-8F3A-67C271B65813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="36" idx="2"/>
+              <a:endCxn id="37" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4127500" y="6032500"/>
+              <a:ext cx="0" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直线箭头连接符 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE72F99F-B74F-174C-84C4-76E1174BBC10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="34" idx="0"/>
+              <a:endCxn id="37" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4127500" y="7137400"/>
+              <a:ext cx="0" cy="723900"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="文本框 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CBA807-B580-1D4E-BD06-51A7FDBD04C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="8026400"/>
+          <a:ext cx="1620957" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>操作系统调度器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="圆角矩形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2208C1ED-3787-C847-985A-F26840D083C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="1079500"/>
+          <a:ext cx="9791700" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2426"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1618264" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文本框 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C965501A-B46A-094F-8315-BFAF7FEB9BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="4775200"/>
+          <a:ext cx="1618264" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>goroutine</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>调度器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1943930" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DF3686-94E4-3E4D-B289-6F7F625D264E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="6743700"/>
+          <a:ext cx="1943930" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>GOMAXPROCS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>设定的个数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191330</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>150362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直线箭头连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6DB4C4-535A-E549-A3F3-CD5B9A1F19F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163130" y="6894062"/>
+          <a:ext cx="456370" cy="2038"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直线箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54079B9C-0218-2743-8F0E-FB1E3D754744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4546600" y="8699500"/>
+          <a:ext cx="0" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直线箭头连接符 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B419CD97-B60F-2743-B28C-56D6CA00A599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="0"/>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6026150" y="8674100"/>
+          <a:ext cx="6350" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>84647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="圆角矩形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C2C79E-3F1C-A04B-BAD2-ED9309558D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8928100" y="7924800"/>
+          <a:ext cx="622300" cy="618047"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>84647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="圆角矩形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0574F0D7-5458-264E-8F46-5BF41A2AB3A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="7924800"/>
+          <a:ext cx="622300" cy="618047"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>263594</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="组合 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFAD18E-9DBA-1D48-911F-853AC0303431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3076575" y="1231900"/>
+          <a:ext cx="5188019" cy="1193800"/>
+          <a:chOff x="1981200" y="1231900"/>
+          <a:chExt cx="5140394" cy="1193800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="圆角矩形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D363B3A6-794C-AD4E-98C8-D0B746BE496A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2451100" y="1587500"/>
+            <a:ext cx="4178300" cy="838200"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="82" name="组合 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644785DB-BD16-4D47-A023-E4C2E5CC2185}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1981200" y="1231900"/>
+            <a:ext cx="5140394" cy="1100647"/>
+            <a:chOff x="1981200" y="1231900"/>
+            <a:chExt cx="5140394" cy="1100647"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="圆角矩形 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E97D071-08AD-9F4A-8E52-C83613A8B45B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4999566" y="1714500"/>
+              <a:ext cx="622300" cy="618047"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="圆角矩形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F3DFF9-DA23-A34B-B96D-BD1DA208B73D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5803900" y="1714500"/>
+              <a:ext cx="622300" cy="618047"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="圆角矩形 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53BC5B6-1616-6149-A3B1-377DD25ADAAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4195233" y="1714500"/>
+              <a:ext cx="622300" cy="618047"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="圆角矩形 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82858974-CE4E-4848-AB86-E0AFE21FB5D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3390900" y="1714500"/>
+              <a:ext cx="622300" cy="618047"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>G</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="66" name="直线箭头连接符 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B297B7-F102-994C-8A13-97786F4B2662}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6642930" y="1979162"/>
+              <a:ext cx="456370" cy="2038"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="67" name="直线箭头连接符 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1E9E32-1ADD-854B-9D04-9BA695F9ED1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1982030" y="1979162"/>
+              <a:ext cx="456370" cy="2038"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="文本框 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3A8BDE-EEC5-1E4D-8FE3-9756A6AEF805}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6654800" y="1689100"/>
+              <a:ext cx="466794" cy="283411"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>出队</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="文本框 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72075A4-1A86-AB44-A369-FEF3BDC82CB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1981200" y="1689100"/>
+              <a:ext cx="466794" cy="283411"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>入队</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="文本框 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D79306-0467-964F-B63E-076A22005DBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4368800" y="1231900"/>
+              <a:ext cx="902811" cy="335541"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+                <a:t>全局队列</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342899" cy="1527534"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF190856-D74B-4B4B-B732-F54AB8D15075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="4064000"/>
+          <a:ext cx="342899" cy="1527534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的本地队列</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="文本框 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF497BC-E88C-A74D-BADB-192ED90D26F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9385300" y="8572500"/>
+          <a:ext cx="748923" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>空闲线程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="圆角矩形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8818FFCF-799C-7845-BD2E-B5637B728344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="9055100"/>
+          <a:ext cx="622300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直线箭头连接符 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965E5F4D-03CC-4D47-B105-182D0F347835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7493000" y="8674100"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="圆角矩形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CB638A-0C7E-3644-81EA-AC38EFC82B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8655050" y="9055100"/>
+          <a:ext cx="622300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直线箭头连接符 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC40D77-4B60-1B4C-8E28-453FCB3254D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8966200" y="8686800"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -42864,7 +46066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D4482-4E01-A042-A0DB-0E49B68DBEDB}">
   <dimension ref="B4:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -43027,19 +46229,19 @@
       <c r="I31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="24"/>
+      <c r="P31" s="25"/>
     </row>
     <row r="32" spans="2:16" ht="21">
       <c r="I32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="26" t="s">
+      <c r="P32" s="23" t="s">
         <v>92</v>
       </c>
     </row>
@@ -43050,10 +46252,10 @@
       <c r="L33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O33" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="P33" s="26" t="s">
+      <c r="P33" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -43061,13 +46263,13 @@
       <c r="I34" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="P34" s="26" t="s">
+      <c r="P34" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -43075,13 +46277,13 @@
       <c r="I35" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="P35" s="26" t="s">
+      <c r="P35" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -43089,91 +46291,91 @@
       <c r="I36" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="O36" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="P36" s="23"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="9:16" ht="21">
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O37" s="19" t="s">
+      <c r="O37" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="P37" s="19"/>
+      <c r="P37" s="24"/>
     </row>
     <row r="38" spans="9:16" ht="21">
       <c r="I38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="P38" s="19"/>
+      <c r="P38" s="24"/>
     </row>
     <row r="39" spans="9:16" ht="21">
       <c r="I39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O39" s="19" t="s">
+      <c r="O39" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="P39" s="19"/>
+      <c r="P39" s="24"/>
     </row>
     <row r="40" spans="9:16" ht="21">
       <c r="I40" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="P40" s="23"/>
+      <c r="P40" s="26"/>
     </row>
     <row r="41" spans="9:16" ht="21">
       <c r="K41" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="19"/>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="9:16" ht="21">
       <c r="K42" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="O42" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P42" s="19"/>
+      <c r="P42" s="24"/>
     </row>
     <row r="43" spans="9:16" ht="21">
       <c r="K43" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O43" s="19" t="s">
+      <c r="O43" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="P43" s="19"/>
+      <c r="P43" s="24"/>
     </row>
     <row r="44" spans="9:16" ht="21">
       <c r="K44" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="O44" s="19" t="s">
+      <c r="O44" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="P44" s="19"/>
+      <c r="P44" s="24"/>
     </row>
     <row r="46" spans="9:16" ht="21">
       <c r="M46" s="17" t="s">
@@ -43181,27 +46383,27 @@
       </c>
     </row>
     <row r="47" spans="9:16" ht="21">
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="48" spans="9:16" ht="21">
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="13:13" ht="21">
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="13:13" ht="21">
-      <c r="M50" s="20" t="s">
+      <c r="M50" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="13:13" ht="21">
-      <c r="M51" s="20" t="s">
+      <c r="M51" s="19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -43944,24 +47146,27 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC0E1F-5BBF-314C-8EC4-76DC27941DFE}">
+  <dimension ref="AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AN29" sqref="AN29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="26" spans="39:39" ht="21">
+      <c r="AM26" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -43969,21 +47174,65 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -43992,35 +47241,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -44029,7 +47251,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/go_pic.xlsx
+++ b/go_pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F875B95A-B006-F84B-8390-888B4F2279BB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{187363CD-24A0-814F-AEA3-0C0B37FE5AA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42469,8 +42469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3756025" y="2971800"/>
-          <a:ext cx="819150" cy="5578475"/>
+          <a:off x="3636837" y="2835729"/>
+          <a:ext cx="797479" cy="5316663"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -43166,8 +43166,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5254625" y="2971800"/>
-          <a:ext cx="822325" cy="5578475"/>
+          <a:off x="5092095" y="2835729"/>
+          <a:ext cx="789819" cy="5316663"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -43591,8 +43591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6756400" y="2971800"/>
-          <a:ext cx="819150" cy="5578475"/>
+          <a:off x="6539694" y="2835729"/>
+          <a:ext cx="797479" cy="5316663"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -44586,8 +44586,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3076575" y="1231900"/>
-          <a:ext cx="5188019" cy="1193800"/>
+          <a:off x="2979057" y="1177471"/>
+          <a:ext cx="5025489" cy="1139372"/>
           <a:chOff x="1981200" y="1231900"/>
           <a:chExt cx="5140394" cy="1193800"/>
         </a:xfrm>
@@ -45656,8 +45656,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1089025" y="13922375"/>
-          <a:ext cx="2063750" cy="5435593"/>
+          <a:off x="1056519" y="13270492"/>
+          <a:ext cx="1998738" cy="5172522"/>
           <a:chOff x="1079500" y="13982700"/>
           <a:chExt cx="2044700" cy="5435593"/>
         </a:xfrm>
@@ -46200,8 +46200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5600700" y="13922375"/>
-          <a:ext cx="2130425" cy="5435593"/>
+          <a:off x="5427335" y="13270492"/>
+          <a:ext cx="2054578" cy="5172522"/>
           <a:chOff x="5549900" y="14020800"/>
           <a:chExt cx="2108200" cy="5435593"/>
         </a:xfrm>
@@ -46909,8 +46909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9461500" y="13922375"/>
-          <a:ext cx="2063750" cy="5435593"/>
+          <a:off x="9158111" y="13270492"/>
+          <a:ext cx="1998738" cy="5172522"/>
           <a:chOff x="1079500" y="13982700"/>
           <a:chExt cx="2044700" cy="5435593"/>
         </a:xfrm>
@@ -47453,8 +47453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13487400" y="13922375"/>
-          <a:ext cx="2127250" cy="5435593"/>
+          <a:off x="13053987" y="13270492"/>
+          <a:ext cx="2062238" cy="5172522"/>
           <a:chOff x="5549900" y="14020800"/>
           <a:chExt cx="2108200" cy="5435593"/>
         </a:xfrm>
@@ -48869,8 +48869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1511300" y="22710775"/>
-          <a:ext cx="2127250" cy="5435593"/>
+          <a:off x="1467959" y="21641606"/>
+          <a:ext cx="2062238" cy="5172522"/>
           <a:chOff x="1498600" y="22136100"/>
           <a:chExt cx="2108200" cy="5435593"/>
         </a:xfrm>
@@ -49434,8 +49434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6807200" y="22710775"/>
-          <a:ext cx="2127250" cy="5435593"/>
+          <a:off x="6590494" y="21641606"/>
+          <a:ext cx="2062238" cy="5172522"/>
           <a:chOff x="1498600" y="22136100"/>
           <a:chExt cx="2108200" cy="5435593"/>
         </a:xfrm>
@@ -50992,8 +50992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3756025" y="31626175"/>
-          <a:ext cx="819150" cy="5499100"/>
+          <a:off x="3636837" y="30130649"/>
+          <a:ext cx="797479" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -51478,8 +51478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5596467" y="31626175"/>
-          <a:ext cx="822325" cy="5499100"/>
+          <a:off x="5423102" y="30130649"/>
+          <a:ext cx="789819" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -52049,8 +52049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2524125" y="29797375"/>
-          <a:ext cx="5191194" cy="1193800"/>
+          <a:off x="2448278" y="28383492"/>
+          <a:ext cx="5017829" cy="1139371"/>
           <a:chOff x="1981200" y="1231900"/>
           <a:chExt cx="5140394" cy="1193800"/>
         </a:xfrm>
@@ -52495,8 +52495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="971550" y="36502975"/>
-          <a:ext cx="1577975" cy="931111"/>
+          <a:off x="949879" y="34771592"/>
+          <a:ext cx="1523799" cy="885754"/>
           <a:chOff x="965200" y="36499800"/>
           <a:chExt cx="1562100" cy="931111"/>
         </a:xfrm>
@@ -52736,13 +52736,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -52759,8 +52759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7518400" y="33375600"/>
-          <a:ext cx="812800" cy="571500"/>
+          <a:off x="7461250" y="33378775"/>
+          <a:ext cx="822325" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -52793,13 +52793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -52817,8 +52817,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12090400" y="31626175"/>
-          <a:ext cx="819150" cy="5499100"/>
+          <a:off x="11055249" y="30130649"/>
+          <a:ext cx="797480" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -53221,13 +53221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>160867</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>40217</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -53245,8 +53245,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14495992" y="31626175"/>
-          <a:ext cx="1879600" cy="5499100"/>
+          <a:off x="13384994" y="30130649"/>
+          <a:ext cx="1814588" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="1860550" cy="5499100"/>
         </a:xfrm>
@@ -53585,7 +53585,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -53647,7 +53647,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -53736,13 +53736,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>270583</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>150362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -53792,13 +53792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>47694</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -53816,8 +53816,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10858500" y="29797375"/>
-          <a:ext cx="5191194" cy="1193800"/>
+          <a:off x="9866690" y="28383492"/>
+          <a:ext cx="5017829" cy="1139371"/>
           <a:chOff x="1981200" y="1231900"/>
           <a:chExt cx="5140394" cy="1193800"/>
         </a:xfrm>
@@ -54112,13 +54112,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>196</xdr:row>
       <xdr:rowOff>16711</xdr:rowOff>
@@ -54136,8 +54136,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9305925" y="36502975"/>
-          <a:ext cx="1577975" cy="931111"/>
+          <a:off x="8368292" y="34771592"/>
+          <a:ext cx="1523798" cy="885754"/>
           <a:chOff x="965200" y="36499800"/>
           <a:chExt cx="1562100" cy="931111"/>
         </a:xfrm>
@@ -54317,13 +54317,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>134163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -54373,14 +54373,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -54397,8 +54397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16586200" y="35585400"/>
-          <a:ext cx="812800" cy="609600"/>
+          <a:off x="16094075" y="33378775"/>
+          <a:ext cx="812800" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -54431,13 +54431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -54507,13 +54507,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -54560,13 +54560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>218017</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>78317</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -54613,13 +54613,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -54637,8 +54637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20186650" y="35791775"/>
-          <a:ext cx="1422400" cy="1333500"/>
+          <a:off x="18568912" y="34096678"/>
+          <a:ext cx="1379059" cy="1270000"/>
           <a:chOff x="3816350" y="7137400"/>
           <a:chExt cx="1409700" cy="1333500"/>
         </a:xfrm>
@@ -54750,13 +54750,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>160867</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>40217</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -54774,8 +54774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22496992" y="31626175"/>
-          <a:ext cx="1879600" cy="5499100"/>
+          <a:off x="20803407" y="30130649"/>
+          <a:ext cx="1814588" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="1860550" cy="5499100"/>
         </a:xfrm>
@@ -55114,7 +55114,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -55176,7 +55176,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -55265,13 +55265,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>67383</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>150362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -55321,13 +55321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>47694</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -55345,8 +55345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18859500" y="29797375"/>
-          <a:ext cx="5191194" cy="1193800"/>
+          <a:off x="17285103" y="28383492"/>
+          <a:ext cx="5017829" cy="1139371"/>
           <a:chOff x="1981200" y="1231900"/>
           <a:chExt cx="5140394" cy="1193800"/>
         </a:xfrm>
@@ -55641,13 +55641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>196</xdr:row>
       <xdr:rowOff>16711</xdr:rowOff>
@@ -55665,8 +55665,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18103850" y="36502975"/>
-          <a:ext cx="1577975" cy="931111"/>
+          <a:off x="16551124" y="34771592"/>
+          <a:ext cx="1523798" cy="885754"/>
           <a:chOff x="965200" y="36499800"/>
           <a:chExt cx="1562100" cy="931111"/>
         </a:xfrm>
@@ -55846,14 +55846,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -55870,8 +55870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27444700" y="33375600"/>
-          <a:ext cx="812800" cy="571500"/>
+          <a:off x="26263600" y="33378775"/>
+          <a:ext cx="819150" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -55904,13 +55904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -55980,13 +55980,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>218017</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>78317</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -56033,13 +56033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -56057,8 +56057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25041225" y="31626175"/>
-          <a:ext cx="819150" cy="5499100"/>
+          <a:off x="23260957" y="30130649"/>
+          <a:ext cx="797480" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -56336,13 +56336,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>287867</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>249767</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -56412,13 +56412,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>287867</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -56465,13 +56465,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
@@ -56524,13 +56524,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>91</xdr:col>
       <xdr:colOff>173567</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>102</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>52917</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -56548,8 +56548,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32177567" y="31626175"/>
-          <a:ext cx="1879600" cy="5499100"/>
+          <a:off x="29524678" y="30130649"/>
+          <a:ext cx="1814588" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="1860550" cy="5499100"/>
         </a:xfrm>
@@ -56888,7 +56888,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -56950,7 +56950,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -57039,13 +57039,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>270583</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>150362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -57095,13 +57095,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>47694</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -57119,8 +57119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="30527625" y="29797375"/>
-          <a:ext cx="5191194" cy="1193800"/>
+          <a:off x="27928913" y="28383492"/>
+          <a:ext cx="5017829" cy="1139371"/>
           <a:chOff x="1981200" y="1231900"/>
           <a:chExt cx="5140394" cy="1193800"/>
         </a:xfrm>
@@ -57415,13 +57415,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>88</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>196</xdr:row>
       <xdr:rowOff>16711</xdr:rowOff>
@@ -57439,8 +57439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29464000" y="36502975"/>
-          <a:ext cx="1577975" cy="931111"/>
+          <a:off x="26897794" y="34771592"/>
+          <a:ext cx="1523798" cy="885754"/>
           <a:chOff x="965200" y="36499800"/>
           <a:chExt cx="1562100" cy="931111"/>
         </a:xfrm>
@@ -57620,13 +57620,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>98</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>230717</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>91017</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -57673,13 +57673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>104</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>106</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -57697,8 +57697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="34721800" y="31626175"/>
-          <a:ext cx="819150" cy="5499100"/>
+          <a:off x="31982229" y="30130649"/>
+          <a:ext cx="797479" cy="5236029"/>
           <a:chOff x="3721100" y="2971800"/>
           <a:chExt cx="812800" cy="5499100"/>
         </a:xfrm>
@@ -57976,13 +57976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -58052,12 +58052,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="748923" cy="283411"/>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="902811" cy="335541"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="637" name="文本框 636">
@@ -58071,8 +58071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35039300" y="35953700"/>
-          <a:ext cx="748923" cy="283411"/>
+          <a:off x="33899475" y="36163250"/>
+          <a:ext cx="902811" cy="335541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -58100,7 +58100,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -58114,13 +58114,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>107</xdr:col>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>109</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -58190,13 +58190,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>106</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -58356,7 +58356,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>16941</xdr:rowOff>
@@ -58455,7 +58455,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>16941</xdr:rowOff>
@@ -58583,7 +58583,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>16941</xdr:rowOff>
@@ -58688,6 +58688,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="724" name="圆角矩形 723">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD58404A-2358-9D46-BA91-5CECF555B643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32861250" y="34829750"/>
+          <a:ext cx="2143125" cy="2508250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5556"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -60330,8 +60393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC0E1F-5BBF-314C-8EC4-76DC27941DFE}">
   <dimension ref="AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A167" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BU216" sqref="BU216"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C134" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="AY211" sqref="AY211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>

--- a/go_pic.xlsx
+++ b/go_pic.xlsx
@@ -5,121 +5,122 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{187363CD-24A0-814F-AEA3-0C0B37FE5AA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F58D3DC-B989-A441-AA70-CC1CE46F2953}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="go_slice" sheetId="37" r:id="rId1"/>
-    <sheet name="go_map" sheetId="38" r:id="rId2"/>
-    <sheet name="tree" sheetId="34" r:id="rId3"/>
-    <sheet name="mysql" sheetId="33" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="39" r:id="rId5"/>
+    <sheet name="Sheet1 (2)" sheetId="40" r:id="rId1"/>
+    <sheet name="go_slice" sheetId="37" r:id="rId2"/>
+    <sheet name="go_map" sheetId="38" r:id="rId3"/>
+    <sheet name="tree" sheetId="34" r:id="rId4"/>
+    <sheet name="mysql" sheetId="33" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="108">
   <si>
     <t>功能</t>
     <rPh sb="0" eb="2">
       <t>gong'nen</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
     <rPh sb="0" eb="2">
       <t>cun'ch</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>事务</t>
     <rPh sb="0" eb="2">
       <t>shi'w</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>全文索引</t>
     <rPh sb="0" eb="2">
       <t>quan'wen'suo'yi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数索引</t>
     <rPh sb="0" eb="2">
       <t>suo'yi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>哈希索引</t>
     <rPh sb="0" eb="2">
       <t>ha</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据缓存</t>
     <rPh sb="0" eb="2">
       <t>shu'j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外键</t>
     <rPh sb="0" eb="2">
       <t>wai'jia</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>InnoDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MYISAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Archive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>64TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>256TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Table 13.2 InnoDB Storage Engine Index Characteristics</t>
@@ -192,43 +193,43 @@
   </si>
   <si>
     <t>ptr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>array :=[7]int{14, 23, 37, 9, 77, 8, 11}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>slice :=array[1:3:4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[4]int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>slice :=make([ ]int, 2, 4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>slice :=[]int{1,2,3,4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>slice = append(sliece, 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[8]int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段</t>
@@ -277,11 +278,11 @@
   </si>
   <si>
     <t>表示当前哈希表中的元素数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是哈希在扩容时用于保存之前 buckets 的字段，它的大小是当前 buckets 的一半；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>topbits</t>
@@ -300,90 +301,90 @@
   </si>
   <si>
     <t>对齐内存使用的，不是每个bmap都有会这个字段，需要满足一定条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长度为8的数组，[]uint8，元素为：key获取的hash的高8位，遍历时对比使用，提高性能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长度为8的数组，[]keytype，元素为：具体的key值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长度为8的数组，[]elemtype，元素为：键值对的key对应的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B 表示当前哈希表持有的 buckets 数量，但是因为哈希表中桶的数量都 2 的倍数，
 所以该字段会存储对数，也就是 len(buckets) == 2^B。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是哈希的种子，它能为哈希函数的结果引入随机性，
 这个值在创建哈希表时确定，并在调用哈希函数时作为参数传入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>指向一个数组(连续内存空间)，数组的类型为[]bmap，bmap类型
 就是存在键值对的结构下面会详细介绍，这个字段我们可以称之为正常桶。如下图所示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>指向的hmap.extra.overflow溢出桶里的bmap，
 上面的字段topbits、keys、elems长度为8，最多存8组键值对，存满了就往指向的这个bmap里存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[ ]bmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>… …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Key[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">…… </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Key[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Value[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">… … </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Value[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tophash[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tophash[1]</t>
   </si>
   <si>
     <t>tophash[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tophash[3]</t>
@@ -402,19 +403,19 @@
   </si>
   <si>
     <t>Key[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Value[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mapextra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>oldoverflow</t>
@@ -422,16 +423,36 @@
   <si>
     <t>nextOverflow</t>
   </si>
+  <si>
+    <t>56 = 111000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 = 0234</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>356 = 0x164</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -565,6 +586,13 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -616,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -648,115 +676,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{4BF125D6-E36B-074C-92F1-1A7CD7764ED9}"/>
     <cellStyle name="常规 3" xfId="3" xr:uid="{03FDAED9-9B25-4E47-AB7D-627BA9E1E552}"/>
     <cellStyle name="常规 4" xfId="4" xr:uid="{08246243-C273-524F-B4D7-1A0324E674B9}"/>
+    <cellStyle name="常规 5" xfId="5" xr:uid="{C253F507-512C-D64C-AEB1-7FC7F4F86C37}"/>
     <cellStyle name="超链接 2" xfId="2" xr:uid="{BF8975B4-7501-EA45-9FCC-A1B2C9A48C47}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -59035,6 +59156,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CDB81-A806-0A40-B46A-28E3C7A667AF}">
+  <dimension ref="D6:Z12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="4" width="3" style="28"/>
+    <col min="5" max="8" width="1.33203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="28" customWidth="1"/>
+    <col min="10" max="13" width="3" style="28"/>
+    <col min="14" max="17" width="1.33203125" style="28" customWidth="1"/>
+    <col min="18" max="20" width="3" style="28"/>
+    <col min="21" max="21" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="1.33203125" style="28" customWidth="1"/>
+    <col min="26" max="16384" width="3" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:26">
+      <c r="D6" s="38">
+        <v>2</v>
+      </c>
+      <c r="E6" s="37">
+        <v>56</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="38">
+        <v>8</v>
+      </c>
+      <c r="N6" s="37">
+        <v>156</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="28">
+        <v>4</v>
+      </c>
+      <c r="U6" s="38">
+        <v>16</v>
+      </c>
+      <c r="V6" s="37">
+        <v>356</v>
+      </c>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:26">
+      <c r="D7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33">
+        <v>28</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <v>8</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="33">
+        <v>19</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="28">
+        <v>3</v>
+      </c>
+      <c r="U7" s="31">
+        <v>16</v>
+      </c>
+      <c r="V7" s="30"/>
+      <c r="W7" s="33">
+        <v>22</v>
+      </c>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:26">
+      <c r="D8" s="31">
+        <v>2</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="33">
+        <v>14</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="X8" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="34"/>
+    </row>
+    <row r="9" spans="4:26">
+      <c r="F9" s="31">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="33">
+        <v>7</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:26">
+      <c r="F10" s="31">
+        <v>2</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29">
+        <v>3</v>
+      </c>
+      <c r="J10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:26">
+      <c r="I11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:26">
+      <c r="D12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F61FAAC-E910-3B4F-8224-1BB7E0426FBF}">
   <dimension ref="F2:AC27"/>
   <sheetViews>
@@ -59299,13 +59609,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D4482-4E01-A042-A0DB-0E49B68DBEDB}">
   <dimension ref="B4:P51"/>
   <sheetViews>
@@ -59663,13 +59973,13 @@
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="O41:P41"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644E5244-ABF6-4DFC-B5A9-35FCAD5CDE5A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -59679,14 +59989,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D4699-DA57-4848-B38D-78D1A276D1DB}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
@@ -60383,17 +60693,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC0E1F-5BBF-314C-8EC4-76DC27941DFE}">
   <dimension ref="AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C134" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C134" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="AY211" sqref="AY211"/>
     </sheetView>
   </sheetViews>
@@ -60403,7 +60713,7 @@
       <c r="AM26" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -60411,6 +60721,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -60418,38 +60734,41 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -60458,17 +60777,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -60477,6 +60787,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -60485,17 +60804,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
